--- a/eps_mppt_BOM.xlsx
+++ b/eps_mppt_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mit\Code\eps_mppt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\chickadee\eps_mppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A428452-4D11-4CF4-9D74-65CFB488439B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B75A43E-A9D7-40D1-8B29-F49A713FB719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="13635" windowWidth="25440" windowHeight="15990" xr2:uid="{473DAC2F-2D10-4B52-90E0-FA927CE84440}"/>
+    <workbookView xWindow="10845" yWindow="4710" windowWidth="26145" windowHeight="15345" xr2:uid="{473DAC2F-2D10-4B52-90E0-FA927CE84440}"/>
   </bookViews>
   <sheets>
     <sheet name="eps_mppt_BOM" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +487,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -837,13 +843,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1223,22 +1230,22 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="28.765625" customWidth="1"/>
-    <col min="4" max="4" width="26.23046875" customWidth="1"/>
-    <col min="5" max="5" width="14.23046875" customWidth="1"/>
-    <col min="6" max="6" width="27.15234375" customWidth="1"/>
-    <col min="7" max="7" width="40.69140625" customWidth="1"/>
-    <col min="11" max="11" width="13.15234375" customWidth="1"/>
-    <col min="12" max="12" width="12.07421875" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1355,7 @@
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1391,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1420,7 +1427,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1456,7 +1463,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1492,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1528,7 +1535,7 @@
         <v>2.8100000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1594,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1624,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1660,7 +1667,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1686,17 +1693,17 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>50</v>
-      </c>
-      <c r="K13">
-        <v>0.216</v>
+        <v>20</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.28000000000000003</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1722,17 +1729,17 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>50</v>
-      </c>
-      <c r="K14">
-        <v>0.19500000000000001</v>
+        <v>20</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.253</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>9.75</v>
+        <v>5.0600000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1768,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1794,17 +1801,17 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>3.1</v>
+        <v>3.37</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1830,30 +1837,30 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>2.72</v>
+        <v>4.18</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>27.200000000000003</v>
+        <v>8.36</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>96</v>
       </c>
       <c r="L19">
         <f>SUM(L2:L17)</f>
-        <v>138.59</v>
+        <v>95.71</v>
       </c>
     </row>
   </sheetData>
@@ -1874,10 +1881,28 @@
     <hyperlink ref="F15" r:id="rId14" xr:uid="{BF788985-62A6-4183-AE3A-1B9F09B0171D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8ecee693-7a53-4b24-a23c-6adc242e5b8c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFCA42E883BD0D4EAE68B525AC8B29CC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7091bd695aa6065db801130a9d0fb182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="07671486-8b40-48be-8554-e0ff1d707815" xmlns:ns4="8ecee693-7a53-4b24-a23c-6adc242e5b8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62058ba0f9c2691895e24e8b87e572db" ns3:_="" ns4:_="">
     <xsd:import namespace="07671486-8b40-48be-8554-e0ff1d707815"/>
@@ -2124,24 +2149,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37C256F8-8862-4AD7-8764-375722B73608}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8ecee693-7a53-4b24-a23c-6adc242e5b8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="07671486-8b40-48be-8554-e0ff1d707815"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8ecee693-7a53-4b24-a23c-6adc242e5b8c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED07593A-D34B-4DAC-810C-0DD0698FA2C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40199ADB-18ED-46FC-99AC-20663D3D3C4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2158,29 +2191,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED07593A-D34B-4DAC-810C-0DD0698FA2C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37C256F8-8862-4AD7-8764-375722B73608}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8ecee693-7a53-4b24-a23c-6adc242e5b8c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="07671486-8b40-48be-8554-e0ff1d707815"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/eps_mppt_BOM.xlsx
+++ b/eps_mppt_BOM.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr showObjects="none" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\chickadee\eps_mppt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mit\Code\eps_mppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B75A43E-A9D7-40D1-8B29-F49A713FB719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439C3E6-1F0F-4185-8817-FF1DB571FD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="4710" windowWidth="26145" windowHeight="15345" xr2:uid="{473DAC2F-2D10-4B52-90E0-FA927CE84440}"/>
+    <workbookView xWindow="-28920" yWindow="15930" windowWidth="29040" windowHeight="16440" xr2:uid="{473DAC2F-2D10-4B52-90E0-FA927CE84440}"/>
   </bookViews>
   <sheets>
     <sheet name="eps_mppt_BOM" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
   <si>
     <t>Reference</t>
   </si>
@@ -339,13 +339,37 @@
   </si>
   <si>
     <t>594-MCS04020D1001BE0</t>
+  </si>
+  <si>
+    <t>MCS0402MD3303BE000</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay-Beyschlag/MCS0402MD3303BE000?qs=Jslch3jnSjnNRkKabVld%252BA%3D%3D</t>
+  </si>
+  <si>
+    <t>594-MCS0402MD3303BE0</t>
+  </si>
+  <si>
+    <t>Substituted.</t>
+  </si>
+  <si>
+    <t>Line Item</t>
+  </si>
+  <si>
+    <t>SMM4F5.0A-TR</t>
+  </si>
+  <si>
+    <t>511-SMM4F5.0A-TR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/STMicroelectronics/SMM4F5.0A-TR?qs=5HwTSiuA5HB7K7mI4EswPg%3D%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +513,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -843,7 +891,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -851,6 +899,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1227,682 +1278,803 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2C24E4-9D56-47E1-962F-6C371B6CEAB8}">
-  <dimension ref="A1:L19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" customWidth="1"/>
+    <col min="3" max="3" width="18.15234375" customWidth="1"/>
+    <col min="4" max="4" width="21.84375" customWidth="1"/>
+    <col min="5" max="5" width="21.69140625" customWidth="1"/>
+    <col min="6" max="6" width="7.69140625" customWidth="1"/>
+    <col min="7" max="7" width="9.921875" customWidth="1"/>
+    <col min="8" max="8" width="35.3828125" customWidth="1"/>
+    <col min="9" max="9" width="4.3828125" customWidth="1"/>
+    <col min="10" max="10" width="5.07421875" customWidth="1"/>
+    <col min="11" max="11" width="8.921875" customWidth="1"/>
+    <col min="12" max="12" width="10.84375" customWidth="1"/>
+    <col min="13" max="13" width="9.61328125" customWidth="1"/>
+    <col min="14" max="14" width="11.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>100</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L5" si="0">K2*J2</f>
+      <c r="M2">
+        <f t="shared" ref="M2:M5" si="0">L2*K2</f>
         <v>5.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>80</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.502</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f t="shared" si="0"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.69299999999999995</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="0"/>
         <v>6.93</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.54</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>100</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L6">
-        <f>K6*J6</f>
+      <c r="M6">
+        <f>L6*K6</f>
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L17" si="1">K7*J7</f>
+      <c r="M7">
+        <f t="shared" ref="M7:M19" si="1">L7*K7</f>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>84</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.28100000000000003</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="1"/>
         <v>2.8100000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H9">
+      <c r="I10" s="5">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
         <v>0.498</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>4.9800000000000004</v>
+      <c r="M10" s="5">
+        <f t="shared" ref="M10" si="2">L10*K10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>94</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>94</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
         <v>94</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H11" t="s">
         <v>29</v>
       </c>
-      <c r="H10">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="M11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>94</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>94</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F12" t="s">
         <v>94</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H12" t="s">
         <v>32</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="M12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" t="s">
         <v>95</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H13" t="s">
         <v>36</v>
       </c>
-      <c r="H12">
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="K13">
         <v>10</v>
       </c>
-      <c r="K12">
+      <c r="L13">
         <v>1.05</v>
       </c>
-      <c r="L12">
+      <c r="M13">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" t="s">
         <v>97</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H14" t="s">
         <v>39</v>
       </c>
-      <c r="H13">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="K14">
         <v>20</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L14" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L13">
+      <c r="M14">
         <f t="shared" si="1"/>
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.248</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H14">
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.253</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>20</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.253</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>5.0600000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="K17">
         <v>100</v>
       </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15">
+      <c r="L17">
         <v>0.1</v>
       </c>
-      <c r="L15">
+      <c r="M17">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D18" t="s">
         <v>86</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E18" t="s">
         <v>87</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F18" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H16">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="K18">
         <v>5</v>
       </c>
-      <c r="K16">
+      <c r="L18">
         <v>3.37</v>
       </c>
-      <c r="L16">
+      <c r="M18">
         <f t="shared" si="1"/>
         <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D19" t="s">
         <v>89</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E19" t="s">
         <v>90</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H19" t="s">
         <v>49</v>
       </c>
-      <c r="H17">
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="K17">
+      <c r="L19">
         <v>4.18</v>
       </c>
-      <c r="L17">
+      <c r="M19">
         <f t="shared" si="1"/>
         <v>8.36</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I19" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="J21" t="s">
         <v>96</v>
       </c>
-      <c r="L19">
-        <f>SUM(L2:L17)</f>
-        <v>95.71</v>
+      <c r="M21">
+        <f>SUM(M2:M19)</f>
+        <v>95.63000000000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{90B93F00-7DBF-4256-88B5-D03EB66A62FE}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{ED26C9A9-DC2B-4C35-AAB7-FDA49F1069E0}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{23AEF1AE-6254-420A-B72B-DEBA453A218E}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{47960E4F-DAEB-4CE0-A968-A47B9800D6A8}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{18A7CEF4-FE92-4B60-B368-522C2A2E713C}"/>
-    <hyperlink ref="F2" r:id="rId6" xr:uid="{649038E6-9D46-43D5-8584-CA8CC38EE8F9}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{12B5D6A1-F1AE-4B01-A179-40AFD6A3E9E8}"/>
-    <hyperlink ref="F16" r:id="rId8" xr:uid="{5E445E80-795D-4B94-8D0F-65D6606FBB7E}"/>
-    <hyperlink ref="F17" r:id="rId9" xr:uid="{EE3F53D6-8884-4B55-BCE2-7DFCEF35F8B1}"/>
-    <hyperlink ref="F9" r:id="rId10" xr:uid="{F7FBAF28-1B52-4E98-B314-6CAED1B91052}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{1501BD50-BE4C-4623-A586-3A006A923E30}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{1724E136-41D4-47BB-9F90-830FD16E6910}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{D9450D98-21DA-46AE-936B-162F97A232BE}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{BF788985-62A6-4183-AE3A-1B9F09B0171D}"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{90B93F00-7DBF-4256-88B5-D03EB66A62FE}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{ED26C9A9-DC2B-4C35-AAB7-FDA49F1069E0}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{23AEF1AE-6254-420A-B72B-DEBA453A218E}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{47960E4F-DAEB-4CE0-A968-A47B9800D6A8}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{18A7CEF4-FE92-4B60-B368-522C2A2E713C}"/>
+    <hyperlink ref="G2" r:id="rId6" xr:uid="{649038E6-9D46-43D5-8584-CA8CC38EE8F9}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{12B5D6A1-F1AE-4B01-A179-40AFD6A3E9E8}"/>
+    <hyperlink ref="G18" r:id="rId8" xr:uid="{5E445E80-795D-4B94-8D0F-65D6606FBB7E}"/>
+    <hyperlink ref="G19" r:id="rId9" xr:uid="{EE3F53D6-8884-4B55-BCE2-7DFCEF35F8B1}"/>
+    <hyperlink ref="G9" r:id="rId10" xr:uid="{F7FBAF28-1B52-4E98-B314-6CAED1B91052}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{1501BD50-BE4C-4623-A586-3A006A923E30}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{1724E136-41D4-47BB-9F90-830FD16E6910}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{D9450D98-21DA-46AE-936B-162F97A232BE}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{BF788985-62A6-4183-AE3A-1B9F09B0171D}"/>
+    <hyperlink ref="G15" r:id="rId15" xr:uid="{CDFC6F15-A9B0-4EBD-8393-FEE63935FFF0}"/>
+    <hyperlink ref="G10" r:id="rId16" xr:uid="{E2E080FC-53AC-4F9F-B05A-A28EDFD81C0B}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8ecee693-7a53-4b24-a23c-6adc242e5b8c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFCA42E883BD0D4EAE68B525AC8B29CC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7091bd695aa6065db801130a9d0fb182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="07671486-8b40-48be-8554-e0ff1d707815" xmlns:ns4="8ecee693-7a53-4b24-a23c-6adc242e5b8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62058ba0f9c2691895e24e8b87e572db" ns3:_="" ns4:_="">
     <xsd:import namespace="07671486-8b40-48be-8554-e0ff1d707815"/>
@@ -2149,32 +2321,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37C256F8-8862-4AD7-8764-375722B73608}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8ecee693-7a53-4b24-a23c-6adc242e5b8c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="07671486-8b40-48be-8554-e0ff1d707815"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED07593A-D34B-4DAC-810C-0DD0698FA2C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8ecee693-7a53-4b24-a23c-6adc242e5b8c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40199ADB-18ED-46FC-99AC-20663D3D3C4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2191,4 +2355,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED07593A-D34B-4DAC-810C-0DD0698FA2C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37C256F8-8862-4AD7-8764-375722B73608}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8ecee693-7a53-4b24-a23c-6adc242e5b8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="07671486-8b40-48be-8554-e0ff1d707815"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>